--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITRepository\Calculator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="19140" windowHeight="7152"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="19140" windowHeight="7150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,6 +74,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -116,7 +124,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -151,7 +159,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,7 +384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20</v>
       </c>
@@ -384,7 +392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>21</v>
       </c>
@@ -392,20 +400,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>22</v>
       </c>
       <c r="B4">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -419,7 +419,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -431,7 +431,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
